--- a/excel-psychrometrics-example.xlsx
+++ b/excel-psychrometrics-example.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpaulus\repos\Software-Skills-Part-II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpaulus\source\repos\Software-Skills-Part-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9DACA1-25C0-468E-BBDD-F056745D51F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F307D3A4-30B8-444F-9A36-30A6CEDC9F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{616072B9-1898-4AF0-AEFB-40DE1D1C1E35}"/>
+    <workbookView xWindow="-30100" yWindow="1540" windowWidth="27010" windowHeight="17940" xr2:uid="{616072B9-1898-4AF0-AEFB-40DE1D1C1E35}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Easy Psychrometrics" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,22 +33,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Tdb</t>
-  </si>
-  <si>
-    <t>RH</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>% (0-1)</t>
+  </si>
+  <si>
+    <t>°F</t>
+  </si>
+  <si>
+    <t>psia</t>
+  </si>
+  <si>
+    <t>ω</t>
+  </si>
+  <si>
+    <t>BTU/lbm d.a.</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v,sat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>dp</t>
+    </r>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>φ</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>db</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,16 +132,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF004987"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -73,18 +200,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF004987"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -393,34 +617,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0BEA5A-7C55-4AB8-BD5D-513CA643340B}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>75</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>